--- a/data/trans_dic/P25_12-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_12-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece trastornos de ansiedad</t>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>9,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>21,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,09%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,0; 10,63</t>
+          <t>2,28; 20,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 18,61</t>
+          <t>3,99; 24,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 17,41</t>
+          <t>6,84; 30,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,15; 27,56</t>
+          <t>6,62; 39,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 29,39</t>
+          <t>11,29; 35,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 22,57</t>
+          <t>22,6; 49,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 17,19</t>
+          <t>11,03; 32,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,69; 21,9</t>
+          <t>11,55; 37,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,67; 18,42</t>
+          <t>9,05; 24,73</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 34,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 28,87</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 32,75</t>
         </is>
       </c>
     </row>
@@ -742,12 +797,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +812,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,42%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>11,49%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10,44%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 10,38</t>
+          <t>3,29; 11,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,43</t>
+          <t>3,11; 11,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,45</t>
+          <t>2,64; 9,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 21,92</t>
+          <t>4,1; 13,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,69; 22,49</t>
+          <t>11,35; 21,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,26; 20,37</t>
+          <t>12,89; 24,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 14,24</t>
+          <t>11,53; 22,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,49</t>
+          <t>14,65; 26,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,76</t>
+          <t>8,39; 15,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 16,41</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>7,58; 13,69</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 18,02</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13,05%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,86</t>
+          <t>2,35; 11,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,12</t>
+          <t>1,8; 10,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 10,47</t>
+          <t>3,13; 13,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,21</t>
+          <t>5,1; 16,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,04; 21,26</t>
+          <t>3,95; 11,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 18,5</t>
+          <t>9,61; 20,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 10,01</t>
+          <t>6,29; 15,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,5; 14,45</t>
+          <t>11,24; 22,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,53</t>
+          <t>4,11; 9,86</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,85; 14,05</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,93; 12,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,93; 17,47</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 21,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,77; 17,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,6; 14,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,91; 12,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,55%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,25%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>14,99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 9,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4,11; 9,81</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 10,24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 15,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 16,65</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15,72; 22,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 18,21</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,01; 22,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8,0; 12,8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 15,96</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>8,76; 13,26</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>12,32; 17,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece trastornos de ansiedad (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13132</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19041</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38513</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30259</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39795</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24672</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46642</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>42553</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>52927</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43713</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>85155</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2934; 26435</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4204; 25906</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7802; 35137</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11588; 68939</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15816; 50377</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26100; 57140</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13496; 39639</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24317; 78906</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24344; 66528</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33335; 76035</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27194; 68287</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46584; 126284</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>27422</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22436</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>20688</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40643</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>75033</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>69677</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>60168</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>98320</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>102455</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>92113</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>80856</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>138963</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14141; 50373</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11691; 43218</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>10538; 36283</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21201; 68982</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>52445; 100777</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>48621; 92342</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>43265; 83323</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>72461; 133194</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>74847; 135355</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71403; 123647</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>58708; 106044</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>104775; 182299</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18690</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18242</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33367</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31321</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>49501</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34353</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>64877</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>50011</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>63005</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52595</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>98244</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7815; 36766</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5027; 29715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8609; 37118</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18017; 59320</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16940; 51193</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>33122; 71543</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20601; 50879</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>44927; 90110</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31273; 75078</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>42728; 87687</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35729; 74427</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>74724; 131544</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>58407</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>49072</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>57971</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>112524</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>136613</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>158973</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>119193</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>209839</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>195019</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>208045</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>177164</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>322362</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>36625; 84233</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31265; 74657</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39220; 80832</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>77396; 158503</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>104072; 171564</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>131617; 190678</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>93377; 150276</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>165783; 253151</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>153746; 246076</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>173848; 255063</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>141452; 214089</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>264782; 382955</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
